--- a/ArticleManage/main_working_folder/output_folders/Data 154 Effect of Bark Biochars/Data154_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 154 Effect of Bark Biochars/Data154_all_graphs_excel.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 4 Adsorption  0-1-0-70 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 4 AdsorptionB  0-1-0-200" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4 Adsorption  0&amp;1&amp;0&amp;70 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4 AdsorptionB  0&amp;1&amp;0&amp;200" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -160,12 +160,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 Adsorption  0-1-0-70 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 Adsorption  0&amp;1&amp;0&amp;70 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 Adsorption  0-1-0-70 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 Adsorption  0&amp;1&amp;0&amp;70 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -474,12 +474,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 AdsorptionB  0-1-0-200'!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 AdsorptionB  0&amp;1&amp;0&amp;200'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 AdsorptionB  0-1-0-200'!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 AdsorptionB  0&amp;1&amp;0&amp;200'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>

--- a/ArticleManage/main_working_folder/output_folders/Data 154 Effect of Bark Biochars/Data154_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 154 Effect of Bark Biochars/Data154_all_graphs_excel.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 4 Adsorption  0&amp;1&amp;0&amp;70 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 4 AdsorptionB  0&amp;1&amp;0&amp;200" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4_1 Adsorption  0&amp;1&amp;0&amp;70" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4_2 AdsorptionB  0&amp;1&amp;0&amp;2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -101,7 +101,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Adsorption z wykresu 'Figure 4' </a:t>
+              <a:t>Izoterma adsorpcji probki Adsorption z wykresu 'Figure 4_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -160,12 +160,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 Adsorption  0&amp;1&amp;0&amp;70 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_1 Adsorption  0&amp;1&amp;0&amp;70'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 Adsorption  0&amp;1&amp;0&amp;70 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_1 Adsorption  0&amp;1&amp;0&amp;70'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -415,7 +415,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AdsorptionB z wykresu 'Figure 4' </a:t>
+              <a:t>Izoterma adsorpcji probki AdsorptionB z wykresu 'Figure 4_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,12 +474,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 AdsorptionB  0&amp;1&amp;0&amp;200'!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_2 AdsorptionB  0&amp;1&amp;0&amp;2'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 AdsorptionB  0&amp;1&amp;0&amp;200'!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_2 AdsorptionB  0&amp;1&amp;0&amp;2'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>

--- a/ArticleManage/main_working_folder/output_folders/Data 154 Effect of Bark Biochars/Data154_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 154 Effect of Bark Biochars/Data154_all_graphs_excel.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 4_1 Adsorption  0&amp;1&amp;0&amp;70" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 4_2 AdsorptionB  0&amp;1&amp;0&amp;2" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4_1 Cork_AC  0&amp;1&amp;0&amp;70 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4_2 Phloem_AC  0&amp;1&amp;0&amp;200" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Adsorption</t>
+    <t>Cork_AC</t>
   </si>
   <si>
     <t>X</t>
@@ -24,7 +24,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>AdsorptionB</t>
+    <t>Phloem_AC</t>
   </si>
 </sst>
 </file>
@@ -101,7 +101,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Adsorption z wykresu 'Figure 4_1' </a:t>
+              <a:t>Izoterma adsorpcji probki Cork_AC z wykresu 'Figure 4_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -160,12 +160,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4_1 Adsorption  0&amp;1&amp;0&amp;70'!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_1 Cork_AC  0&amp;1&amp;0&amp;70 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4_1 Adsorption  0&amp;1&amp;0&amp;70'!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_1 Cork_AC  0&amp;1&amp;0&amp;70 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -415,7 +415,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AdsorptionB z wykresu 'Figure 4_2' </a:t>
+              <a:t>Izoterma adsorpcji probki Phloem_AC z wykresu 'Figure 4_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,12 +474,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4_2 AdsorptionB  0&amp;1&amp;0&amp;2'!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_2 Phloem_AC  0&amp;1&amp;0&amp;200'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4_2 AdsorptionB  0&amp;1&amp;0&amp;2'!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_2 Phloem_AC  0&amp;1&amp;0&amp;200'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
